--- a/data/GASY_pcss.xlsx
+++ b/data/GASY_pcss.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6160D860-C62C-CE44-9F7D-F0629B3DC599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B851ACD5-052F-EA4B-8A92-03871698E834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35360" yWindow="3580" windowWidth="27240" windowHeight="15300" xr2:uid="{CEE72CA0-3CC1-E94C-A911-68D3D778F2D1}"/>
+    <workbookView xWindow="820" yWindow="1340" windowWidth="27240" windowHeight="15300" xr2:uid="{CEE72CA0-3CC1-E94C-A911-68D3D778F2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -468,10 +468,10 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
@@ -479,7 +479,7 @@
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -493,189 +493,259 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24">
         <f>SUM(B2:B23)</f>
         <v>27</v>
+      </c>
+      <c r="C24">
+        <f>SUM(C2:C23)</f>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/GASY_pcss.xlsx
+++ b/data/GASY_pcss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B851ACD5-052F-EA4B-8A92-03871698E834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0CFEBE-52BB-E248-A6D1-6D1ADB551A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="1340" windowWidth="27240" windowHeight="15300" xr2:uid="{CEE72CA0-3CC1-E94C-A911-68D3D778F2D1}"/>
+    <workbookView xWindow="31960" yWindow="2700" windowWidth="27240" windowHeight="15300" xr2:uid="{CEE72CA0-3CC1-E94C-A911-68D3D778F2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Pre Baseline Phase</t>
   </si>
@@ -114,6 +114,24 @@
   </si>
   <si>
     <t>Total Score</t>
+  </si>
+  <si>
+    <t>Headache-Migraine Cluster</t>
+  </si>
+  <si>
+    <t>Cognitive Cluster</t>
+  </si>
+  <si>
+    <t>Anxiety-Mood Cluster</t>
+  </si>
+  <si>
+    <t>Ocular-Motor Cluster</t>
+  </si>
+  <si>
+    <t>Vestibular Cluster</t>
+  </si>
+  <si>
+    <t>Sleep Cluster</t>
   </si>
 </sst>
 </file>
@@ -465,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4460D250-A7D5-B14F-BA18-D3F43924BA34}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -748,6 +766,84 @@
         <v>41</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <f>SUM(B2 + B12 + B13)</f>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f>SUM(C2 + C12 + C13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <f>SUM(B19:B22)</f>
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <f>SUM(C19:C22)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <f>SUM(B14:B18)</f>
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <f>SUM(C14:C18)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <f>B23</f>
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <f>C23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B3:B6)</f>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f>SUM(C3:C6)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <f>SUM(B7:B11)</f>
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <f>SUM(C7:C11)</f>
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_pcss.xlsx
+++ b/data/GASY_pcss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0CFEBE-52BB-E248-A6D1-6D1ADB551A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBBD85D-66FA-284B-8A46-90C5B6B9FBD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31960" yWindow="2700" windowWidth="27240" windowHeight="15300" xr2:uid="{CEE72CA0-3CC1-E94C-A911-68D3D778F2D1}"/>
+    <workbookView xWindow="720" yWindow="860" windowWidth="27240" windowHeight="15300" xr2:uid="{CEE72CA0-3CC1-E94C-A911-68D3D778F2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4460D250-A7D5-B14F-BA18-D3F43924BA34}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,6 +521,9 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -532,6 +535,9 @@
       <c r="C3">
         <v>3</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -543,6 +549,9 @@
       <c r="C4">
         <v>0</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -554,6 +563,9 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -565,6 +577,9 @@
       <c r="C6">
         <v>0</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -576,6 +591,9 @@
       <c r="C7">
         <v>2</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -587,6 +605,9 @@
       <c r="C8">
         <v>0</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -598,6 +619,9 @@
       <c r="C9">
         <v>2</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -609,6 +633,9 @@
       <c r="C10">
         <v>0</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -620,6 +647,9 @@
       <c r="C11">
         <v>3</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -631,6 +661,9 @@
       <c r="C12">
         <v>0</v>
       </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -642,6 +675,9 @@
       <c r="C13">
         <v>0</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -653,6 +689,9 @@
       <c r="C14">
         <v>4</v>
       </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -664,6 +703,9 @@
       <c r="C15">
         <v>5</v>
       </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -675,8 +717,11 @@
       <c r="C16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -686,8 +731,11 @@
       <c r="C17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -697,8 +745,11 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -708,8 +759,11 @@
       <c r="C19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -719,8 +773,11 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -730,8 +787,11 @@
       <c r="C21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -741,8 +801,11 @@
       <c r="C22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -752,8 +815,11 @@
       <c r="C23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -765,8 +831,12 @@
         <f>SUM(C2:C23)</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f>SUM(D2:D23)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -778,8 +848,12 @@
         <f>SUM(C2 + C12 + C13)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f>SUM(D2 + D12 + D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -791,8 +865,12 @@
         <f>SUM(C19:C22)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f>SUM(D19:D22)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -804,8 +882,12 @@
         <f>SUM(C14:C18)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f>SUM(D14:D18)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -817,8 +899,12 @@
         <f>C23</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f>D23</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -830,8 +916,12 @@
         <f>SUM(C3:C6)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f>SUM(D3:D6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -842,6 +932,10 @@
       <c r="C30">
         <f>SUM(C7:C11)</f>
         <v>7</v>
+      </c>
+      <c r="D30">
+        <f>SUM(D7:D11)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
